--- a/doc/数值设计/Action数值设计.xlsx
+++ b/doc/数值设计/Action数值设计.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="922">
   <si>
     <t>ID</t>
   </si>
@@ -2154,10 +2154,6 @@
   </si>
   <si>
     <t>作用范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2264,12 +2260,6 @@
       <t xml:space="preserve"> X X
 X X X</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，增加破击和暴击
-增加的破击＝50％，持续1回合
-增加的暴击＝50％，持续1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2730,21 +2720,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，偷取生命
-偷取的生命＝敌方所受伤害×20％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>刘备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>狂怒之师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，增加暴击
-增加的暴击＝50％，持续1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2784,12 +2764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，增加格挡，保留士气
-增加的格挡＝50％，持续1回合
-保留士气值＝75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张辽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2826,11 +2800,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>横向攻击，增加暴击
-增加的暴击＝50％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>太史慈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2839,11 +2808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，概率眩晕
-眩晕概率＝100％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2852,11 +2816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，保留士气
-保留士气值＝75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>典韦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2877,11 +2836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，增加破击
-增加的破击＝50％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>夏侯渊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2898,43 +2852,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，增加韧性，反弹伤害
-增加的韧性＝50％，持续1回合
-反弹的伤害＝自身所受伤害×40％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，增加格挡
-增加的格挡＝50％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不动如山</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纵向攻击，增加暴击
-增加的暴击＝50％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背水一战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九宫格攻击，保留士气
-保留士气值＝75</t>
-  </si>
-  <si>
     <t>九宫格攻击</t>
   </si>
   <si>
     <t>周泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，重伤时士气不会低于100
-生命低于20％进入重伤状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3048,16 +2977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九宫格攻击，概率降敌士气
-降士气概率＝100％，降敌士气值＝50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向攻击，增加命中
-增加的命中＝50％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3098,11 +3017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，概率眩晕
-眩晕概率＝50％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>承天载物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3111,11 +3025,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全体治疗
-恢复的血量＝施放者智谋×等级×1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>万寿无疆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3125,11 +3034,6 @@
   </si>
   <si>
     <t>刘禅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体增加生命上限
-增加的生命＝受益者生命×50％，持续3回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3314,11 +3218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>媚惑敌军，使其离开战场
-媚惑概率＝100％，相当于秒杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3431,120 +3330,268 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纵向攻击，增加闪避，保留士气
-增加的闪避＝50％，持续1回合
+    <t>纵向攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色旋风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影突击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星夜突袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固若金汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体治疗并增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体治疗并增加防御力</t>
+  </si>
+  <si>
+    <t>保留士气值＝75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格攻击，保留士气</t>
+  </si>
+  <si>
+    <t>增加的破击＝50％，持续1回合
+增加的暴击＝50％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，增加破击和暴击</t>
+  </si>
+  <si>
+    <t>增加的格挡＝50％，持续1回合
 保留士气值＝75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击</t>
+    <t>单体攻击，增加格挡，保留士气</t>
+  </si>
+  <si>
+    <t>恢复的血量＝施放者统率×等级
+增加的攻击＝受益者攻击×20％
+三攻同时增加，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纵向攻击</t>
+    <t>恢复的血量＝施放者统率×等级
+增加的防御＝受益者防御×20％
+三防同时增加，持续2回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>横向攻击</t>
+    <t>增加的闪避＝50％，持续1回合
+保留士气值＝75</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九宫格攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色旋风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>八方攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，概率降敌士气
-降士气概率＝100%，降士气为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗影突击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星夜突袭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，概率眩晕
-眩晕概率＝50％</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体攻击，降敌士气
-降士气概率＝100％，降士气为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固若金汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体防护，获得超高防御
-任何攻击伤害都为1，持续1回合，防护期间不获得士气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体防护，转化策略伤害为治疗
-转换比率＝100％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体治疗并增加攻击力
-恢复的血量＝施放者统率×等级
-增加的攻击＝受益者攻击×20％，三攻同时增加，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体治疗并增加防御力
-恢复的血量＝施放者统率×等级
-增加的防御＝受益者防御×20％，三防同时增加，持续2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体防护，吸收伤害
-吸收伤害比率＝40％，持续1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>横向攻击，增加暴击，降敌士气
-增加的暴击＝50％，持续1回合
+    <t>纵向攻击，增加闪避，保留士气</t>
+  </si>
+  <si>
+    <t>增加的暴击＝50％，持续1回合
 降士气概率＝50％，降士气值＝50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九宫格攻击，概率眩晕并降敌士气
-眩晕概率＝50％
+    <t>眩晕概率＝50％
 降士气概率＝100％，降敌士气为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>八方攻击，概率眩晕
-眩晕概率＝50％</t>
+    <t>九宫格攻击，概率眩晕并降敌士气</t>
+  </si>
+  <si>
+    <t>媚惑概率＝100％，相当于秒杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纵向攻击，概率眩晕
-眩晕概率＝50％</t>
+    <t>媚惑敌军，使其离开战场</t>
+  </si>
+  <si>
+    <t>偷取的生命＝敌方所受伤害×20％</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单体攻击，损失自身生命对敌军造成额外伤害
-己方损失生命＝己方生命最大值×25％
+    <t>单体攻击，偷取生命</t>
+  </si>
+  <si>
+    <t>保留士气值＝75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，保留士气</t>
+  </si>
+  <si>
+    <t>降士气概率＝100%，降士气为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击，增加暴击，降敌士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，降敌士气</t>
+  </si>
+  <si>
+    <t>单体攻击，降敌士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕概率＝50％</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方攻击，概率眩晕</t>
+  </si>
+  <si>
+    <t>增加的暴击＝50％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向攻击，增加暴击</t>
+  </si>
+  <si>
+    <t>横向攻击，增加暴击</t>
+  </si>
+  <si>
+    <t>眩晕概率＝100％</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，概率眩晕</t>
+  </si>
+  <si>
+    <t>单体攻击，增加暴击</t>
+  </si>
+  <si>
+    <t>增加的格挡＝50％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，增加格挡</t>
+  </si>
+  <si>
+    <t>增加的破击＝50％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，增加破击</t>
+  </si>
+  <si>
+    <t>增加的韧性＝50％，持续1回合
+反弹的伤害＝自身所受伤害×40％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，增加韧性，反弹伤害</t>
+  </si>
+  <si>
+    <t>生命低于20％进入重伤状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体攻击，重伤时士气不会低于100</t>
+  </si>
+  <si>
+    <t>单体攻击，损失自身生命对敌军造成额外伤害</t>
+  </si>
+  <si>
+    <t>己方损失生命＝己方生命最大值×25％
 敌军所受额外伤害＝敌军生命最大值×50％</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换比率＝100％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体防护，转化策略伤害为治疗</t>
+  </si>
+  <si>
+    <t>吸收伤害比率＝40％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体防护，吸收伤害</t>
+  </si>
+  <si>
+    <t>纵向攻击，概率眩晕</t>
+  </si>
+  <si>
+    <t>增加的命中＝50％，持续1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击，增加命中</t>
+  </si>
+  <si>
+    <t>降士气概率＝100％，降敌士气值＝50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九宫格攻击，降敌士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复的血量＝施放者智谋×等级×1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体治疗</t>
+  </si>
+  <si>
+    <t>增加的生命＝受益者生命×50％，持续3回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体增加生命上限</t>
+  </si>
+  <si>
+    <t>降士气概率＝100％，降士气为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何攻击伤害都为1，持续1回合，防护期间不获得士气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体防护，获得超高防御</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3876,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3936,6 +3983,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4243,10 +4298,10 @@
   <dimension ref="B1:Y691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="I698" sqref="I698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4264,47 +4319,47 @@
     <row r="1" spans="2:25">
       <c r="S1">
         <f>S3-T4+Q3*50</f>
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="T1">
         <f>S4-T3+Q4*50</f>
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="U1">
         <f>U3-V4+Q3*50</f>
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="V1">
         <f>U4-V3+Q4*50</f>
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="W1">
         <f>W3-X4+Q3*50</f>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="X1">
         <f>W4-X3+Q4*50</f>
-        <v>88</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="2:25">
       <c r="B2" s="3" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>828</v>
+        <v>809</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>831</v>
+        <v>812</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>694</v>
@@ -4361,19 +4416,19 @@
     </row>
     <row r="3" spans="2:25">
       <c r="B3" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C3" s="16">
-        <v>660</v>
+        <v>98</v>
       </c>
       <c r="D3" s="16">
         <v>2</v>
       </c>
       <c r="E3" s="16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>659</v>
+        <v>100</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>VLOOKUP(D3,兵种!B:F,2,0)</f>
@@ -4393,72 +4448,72 @@
       </c>
       <c r="K3" s="16" t="str">
         <f>VLOOKUP(E3,绝技!B:C,2,0)</f>
-        <v>无双乱舞</v>
+        <v>拖刀一击</v>
       </c>
       <c r="L3" s="1">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M3" s="1">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="N3" s="1">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="O3" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="P3" s="1">
         <f>SUM(L3:O3)</f>
-        <v>263</v>
+        <v>355</v>
       </c>
       <c r="Q3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="1">
         <f>INT(Q3*(100+L3+M3*2)*H3)</f>
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="S3" s="1">
         <f>INT(L3*Q3*1*I3)</f>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="T3" s="1">
         <f>INT(L3*Q3*0.7*J3)</f>
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="U3" s="1">
         <f>INT(M3*Q3*1.5)</f>
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="V3" s="1">
         <f>INT(M3*Q3*1)</f>
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="W3" s="1">
         <f>INT(N3*Q3*1.2)</f>
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="X3" s="1">
         <f>INT(N3*Q3*0.8)</f>
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C4" s="16">
-        <v>432</v>
+        <v>225</v>
       </c>
       <c r="D4" s="16">
         <v>2</v>
       </c>
       <c r="E4" s="16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>433</v>
+        <v>227</v>
       </c>
       <c r="G4" s="4" t="str">
         <f>VLOOKUP(D4,兵种!B:F,2,0)</f>
@@ -4478,54 +4533,54 @@
       </c>
       <c r="K4" s="16" t="str">
         <f>VLOOKUP(E4,绝技!B:C,2,0)</f>
-        <v>震天咆哮</v>
+        <v>天神守护</v>
       </c>
       <c r="L4" s="1">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="M4" s="1">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="N4" s="1">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="O4" s="1">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="P4" s="1">
         <f>SUM(L4:O4)</f>
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
       </c>
       <c r="R4" s="1">
         <f>INT(Q4*(100+L4+M4*2)*H4)</f>
-        <v>416</v>
+        <v>344</v>
       </c>
       <c r="S4" s="1">
         <f>INT(L4*Q4*1*I4)</f>
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="T4" s="1">
         <f>INT(L4*Q4*0.7*J4)</f>
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="U4" s="1">
         <f>INT(M4*Q4*1.5)</f>
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="V4" s="1">
         <f>INT(M4*Q4*1)</f>
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="W4" s="1">
         <f>INT(N4*Q4*1.2)</f>
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="X4" s="1">
         <f>INT(N4*Q4*0.8)</f>
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -4693,31 +4748,31 @@
     </row>
     <row r="7" spans="2:25">
       <c r="B7" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C7" s="16">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="D7" s="16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" s="16">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>100</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>VLOOKUP(D7,兵种!B:F,2,0)</f>
-        <v>亲卫队</v>
+        <v>弓弩手</v>
       </c>
       <c r="H7" s="4">
         <f>VLOOKUP(D7,兵种!B:F,3,0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="4">
         <f>VLOOKUP(D7,兵种!B:F,4,0)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <f>VLOOKUP(D7,兵种!B:F,5,0)</f>
@@ -4725,139 +4780,139 @@
       </c>
       <c r="K7" s="16" t="str">
         <f>VLOOKUP(E7,绝技!B:C,2,0)</f>
-        <v>拖刀一击</v>
+        <v>炼狱火海</v>
       </c>
       <c r="L7" s="1">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="M7" s="1">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="N7" s="1">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="O7" s="1">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="P7" s="1">
         <f>SUM(L7:O7)</f>
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1">
         <f>INT(Q7*(100+L7+M7*2)*H7)</f>
-        <v>420</v>
+        <v>341</v>
       </c>
       <c r="S7" s="1">
         <f>INT(L7*Q7*1*I7)</f>
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T7" s="1">
         <f>INT(L7*Q7*0.7*J7)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="U7" s="1">
         <f>INT(M7*Q7*1.5)</f>
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="V7" s="1">
         <f>INT(M7*Q7*1)</f>
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="W7" s="1">
         <f>INT(N7*Q7*1.2)</f>
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="X7" s="1">
         <f>INT(N7*Q7*0.8)</f>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:25">
       <c r="B8" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C8" s="16">
-        <v>395</v>
+        <v>289</v>
       </c>
       <c r="D8" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>397</v>
+        <v>291</v>
       </c>
       <c r="G8" s="4" t="str">
         <f>VLOOKUP(D8,兵种!B:F,2,0)</f>
-        <v>亲卫队</v>
+        <v>谋略家</v>
       </c>
       <c r="H8" s="4">
         <f>VLOOKUP(D8,兵种!B:F,3,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="4">
         <f>VLOOKUP(D8,兵种!B:F,4,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="4">
         <f>VLOOKUP(D8,兵种!B:F,5,0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K8" s="16" t="str">
         <f>VLOOKUP(E8,绝技!B:C,2,0)</f>
-        <v>一身是胆</v>
+        <v>奇门遁甲</v>
       </c>
       <c r="L8" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="1">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="N8" s="1">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="O8" s="1">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="P8" s="1">
         <f>SUM(L8:O8)</f>
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
       <c r="R8" s="1">
         <f>INT(Q8*(100+L8+M8*2)*H8)</f>
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="S8" s="1">
         <f>INT(L8*Q8*1*I8)</f>
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="T8" s="1">
         <f>INT(L8*Q8*0.7*J8)</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="U8" s="1">
         <f>INT(M8*Q8*1.5)</f>
-        <v>162</v>
+        <v>57</v>
       </c>
       <c r="V8" s="1">
         <f>INT(M8*Q8*1)</f>
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="W8" s="1">
         <f>INT(N8*Q8*1.2)</f>
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="X8" s="1">
         <f>INT(N8*Q8*0.8)</f>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Y8" s="1"/>
     </row>
@@ -5106,23 +5161,23 @@
     </row>
     <row r="12" spans="2:25">
       <c r="B12" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C12" s="16">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="D12" s="16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="16">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="G12" s="4" t="str">
         <f>VLOOKUP(D12,兵种!B:F,2,0)</f>
-        <v>战弓骑</v>
+        <v>亲卫队</v>
       </c>
       <c r="H12" s="4">
         <f>VLOOKUP(D12,兵种!B:F,3,0)</f>
@@ -5134,58 +5189,58 @@
       </c>
       <c r="J12" s="4">
         <f>VLOOKUP(D12,兵种!B:F,5,0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K12" s="16" t="str">
         <f>VLOOKUP(E12,绝技!B:C,2,0)</f>
-        <v>恸天贯日</v>
+        <v>天下归心</v>
       </c>
       <c r="L12" s="1">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M12" s="1">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="N12" s="1">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="O12" s="1">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="P12" s="1">
         <f>SUM(L12:O12)</f>
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
       <c r="R12" s="1">
         <f>INT(Q12*(100+L12+M12*2)*H12)</f>
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="S12" s="1">
         <f>INT(L12*Q12*1*I12)</f>
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="T12" s="1">
         <f>INT(L12*Q12*0.7*J12)</f>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="U12" s="1">
         <f>INT(M12*Q12*1.5)</f>
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="V12" s="1">
         <f>INT(M12*Q12*1)</f>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="W12" s="1">
         <f>INT(N12*Q12*1.2)</f>
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="X12" s="1">
         <f>INT(N12*Q12*0.8)</f>
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="Y12" s="1"/>
     </row>
@@ -9241,86 +9296,86 @@
     </row>
     <row r="63" spans="2:25">
       <c r="B63" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C63" s="16">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="D63" s="16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="G63" s="4" t="str">
         <f>VLOOKUP(D63,兵种!B:F,2,0)</f>
-        <v>弓弩手</v>
+        <v>战弓骑</v>
       </c>
       <c r="H63" s="4">
         <f>VLOOKUP(D63,兵种!B:F,3,0)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I63" s="4">
         <f>VLOOKUP(D63,兵种!B:F,4,0)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J63" s="4">
         <f>VLOOKUP(D63,兵种!B:F,5,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K63" s="16" t="str">
         <f>VLOOKUP(E63,绝技!B:C,2,0)</f>
-        <v>炼狱火海</v>
+        <v>恸天贯日</v>
       </c>
       <c r="L63" s="1">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M63" s="1">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="N63" s="1">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="O63" s="1">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="P63" s="1">
         <f>SUM(L63:O63)</f>
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="Q63" s="1">
         <v>1</v>
       </c>
       <c r="R63" s="1">
         <f>INT(Q63*(100+L63+M63*2)*H63)</f>
-        <v>341</v>
+        <v>405</v>
       </c>
       <c r="S63" s="1">
         <f>INT(L63*Q63*1*I63)</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="T63" s="1">
         <f>INT(L63*Q63*0.7*J63)</f>
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="U63" s="1">
         <f>INT(M63*Q63*1.5)</f>
-        <v>124</v>
+        <v>150</v>
       </c>
       <c r="V63" s="1">
         <f>INT(M63*Q63*1)</f>
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="W63" s="1">
         <f>INT(N63*Q63*1.2)</f>
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="X63" s="1">
         <f>INT(N63*Q63*0.8)</f>
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="Y63" s="1"/>
     </row>
@@ -12955,19 +13010,19 @@
     </row>
     <row r="109" spans="2:25">
       <c r="B109" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C109" s="16">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="D109" s="16">
         <v>2</v>
       </c>
       <c r="E109" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="G109" s="4" t="str">
         <f>VLOOKUP(D109,兵种!B:F,2,0)</f>
@@ -12987,54 +13042,54 @@
       </c>
       <c r="K109" s="16" t="str">
         <f>VLOOKUP(E109,绝技!B:C,2,0)</f>
-        <v>天下归心</v>
+        <v>一身是胆</v>
       </c>
       <c r="L109" s="1">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="M109" s="1">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="N109" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O109" s="1">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="P109" s="1">
         <f>SUM(L109:O109)</f>
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="Q109" s="1">
         <v>1</v>
       </c>
       <c r="R109" s="1">
         <f>INT(Q109*(100+L109+M109*2)*H109)</f>
-        <v>376</v>
+        <v>412</v>
       </c>
       <c r="S109" s="1">
         <f>INT(L109*Q109*1*I109)</f>
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="T109" s="1">
         <f>INT(L109*Q109*0.7*J109)</f>
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="U109" s="1">
         <f>INT(M109*Q109*1.5)</f>
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="V109" s="1">
         <f>INT(M109*Q109*1)</f>
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="W109" s="1">
         <f>INT(N109*Q109*1.2)</f>
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X109" s="1">
         <f>INT(N109*Q109*0.8)</f>
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="Y109" s="1"/>
     </row>
@@ -31981,86 +32036,86 @@
     </row>
     <row r="349" spans="2:25">
       <c r="B349" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C349" s="16">
-        <v>225</v>
+        <v>424</v>
       </c>
       <c r="D349" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E349" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>227</v>
+        <v>426</v>
       </c>
       <c r="G349" s="4" t="str">
         <f>VLOOKUP(D349,兵种!B:F,2,0)</f>
-        <v>亲卫队</v>
+        <v>谋略家</v>
       </c>
       <c r="H349" s="4">
         <f>VLOOKUP(D349,兵种!B:F,3,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I349" s="4">
         <f>VLOOKUP(D349,兵种!B:F,4,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J349" s="4">
         <f>VLOOKUP(D349,兵种!B:F,5,0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K349" s="16" t="str">
         <f>VLOOKUP(E349,绝技!B:C,2,0)</f>
-        <v>天神守护</v>
+        <v>倾国倾城</v>
       </c>
       <c r="L349" s="1">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="M349" s="1">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="N349" s="1">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="O349" s="1">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="P349" s="1">
         <f>SUM(L349:O349)</f>
-        <v>387</v>
+        <v>182</v>
       </c>
       <c r="Q349" s="1">
         <v>1</v>
       </c>
       <c r="R349" s="1">
         <f>INT(Q349*(100+L349+M349*2)*H349)</f>
-        <v>344</v>
+        <v>129</v>
       </c>
       <c r="S349" s="1">
         <f>INT(L349*Q349*1*I349)</f>
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="T349" s="1">
         <f>INT(L349*Q349*0.7*J349)</f>
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="U349" s="1">
         <f>INT(M349*Q349*1.5)</f>
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="V349" s="1">
         <f>INT(M349*Q349*1)</f>
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="W349" s="1">
         <f>INT(N349*Q349*1.2)</f>
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="X349" s="1">
         <f>INT(N349*Q349*0.8)</f>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="Y349" s="1"/>
     </row>
@@ -35236,104 +35291,104 @@
     </row>
     <row r="390" spans="2:25">
       <c r="B390" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C390" s="16">
-        <v>801</v>
+        <v>432</v>
       </c>
       <c r="D390" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E390" s="16">
-        <v>0</v>
-      </c>
-      <c r="F390" s="4" t="s">
-        <v>827</v>
+        <v>5</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>433</v>
       </c>
       <c r="G390" s="4" t="str">
         <f>VLOOKUP(D390,兵种!B:F,2,0)</f>
-        <v>近卫军</v>
+        <v>亲卫队</v>
       </c>
       <c r="H390" s="4">
         <f>VLOOKUP(D390,兵种!B:F,3,0)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="I390" s="4">
         <f>VLOOKUP(D390,兵种!B:F,4,0)</f>
-        <v>0.9</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J390" s="4">
         <f>VLOOKUP(D390,兵种!B:F,5,0)</f>
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K390" s="16" t="str">
         <f>VLOOKUP(E390,绝技!B:C,2,0)</f>
-        <v>无</v>
+        <v>震天咆哮</v>
       </c>
       <c r="L390" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M390" s="1">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="N390" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="O390" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="P390" s="1">
         <f>SUM(L390:O390)</f>
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="Q390" s="1">
         <v>1</v>
       </c>
       <c r="R390" s="1">
         <f>INT(Q390*(100+L390+M390*2)*H390)</f>
-        <v>319</v>
+        <v>416</v>
       </c>
       <c r="S390" s="1">
         <f>INT(L390*Q390*1*I390)</f>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="T390" s="1">
         <f>INT(L390*Q390*0.7*J390)</f>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="U390" s="1">
         <f>INT(M390*Q390*1.5)</f>
-        <v>90</v>
+        <v>169</v>
       </c>
       <c r="V390" s="1">
         <f>INT(M390*Q390*1)</f>
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="W390" s="1">
         <f>INT(N390*Q390*1.2)</f>
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="X390" s="1">
         <f>INT(N390*Q390*0.8)</f>
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Y390" s="1"/>
     </row>
     <row r="391" spans="2:25">
       <c r="B391" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C391" s="16">
-        <v>802</v>
+        <v>660</v>
       </c>
       <c r="D391" s="16">
         <v>2</v>
       </c>
       <c r="E391" s="16">
-        <v>0</v>
-      </c>
-      <c r="F391" s="4" t="s">
-        <v>826</v>
+        <v>3</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>659</v>
       </c>
       <c r="G391" s="4" t="str">
         <f>VLOOKUP(D391,兵种!B:F,2,0)</f>
@@ -35353,88 +35408,88 @@
       </c>
       <c r="K391" s="16" t="str">
         <f>VLOOKUP(E391,绝技!B:C,2,0)</f>
-        <v>无</v>
+        <v>无双乱舞</v>
       </c>
       <c r="L391" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M391" s="1">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N391" s="1">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="O391" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P391" s="1">
         <f>SUM(L391:O391)</f>
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="Q391" s="1">
         <v>1</v>
       </c>
       <c r="R391" s="1">
         <f>INT(Q391*(100+L391+M391*2)*H391)</f>
-        <v>290</v>
+        <v>435</v>
       </c>
       <c r="S391" s="1">
         <f>INT(L391*Q391*1*I391)</f>
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="T391" s="1">
         <f>INT(L391*Q391*0.7*J391)</f>
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="U391" s="1">
         <f>INT(M391*Q391*1.5)</f>
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="V391" s="1">
         <f>INT(M391*Q391*1)</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="W391" s="1">
         <f>INT(N391*Q391*1.2)</f>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="X391" s="1">
         <f>INT(N391*Q391*0.8)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y391" s="1"/>
     </row>
     <row r="392" spans="2:25">
       <c r="B392" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C392" s="16">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="D392" s="16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E392" s="16">
         <v>0</v>
       </c>
       <c r="F392" s="4" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="G392" s="4" t="str">
         <f>VLOOKUP(D392,兵种!B:F,2,0)</f>
-        <v>战弓骑</v>
+        <v>近卫军</v>
       </c>
       <c r="H392" s="4">
         <f>VLOOKUP(D392,兵种!B:F,3,0)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I392" s="4">
         <f>VLOOKUP(D392,兵种!B:F,4,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J392" s="4">
         <f>VLOOKUP(D392,兵种!B:F,5,0)</f>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K392" s="16" t="str">
         <f>VLOOKUP(E392,绝技!B:C,2,0)</f>
@@ -35461,15 +35516,15 @@
       </c>
       <c r="R392" s="1">
         <f>INT(Q392*(100+L392+M392*2)*H392)</f>
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="S392" s="1">
         <f>INT(L392*Q392*1*I392)</f>
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="T392" s="1">
         <f>INT(L392*Q392*0.7*J392)</f>
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="U392" s="1">
         <f>INT(M392*Q392*1.5)</f>
@@ -35491,31 +35546,31 @@
     </row>
     <row r="393" spans="2:25">
       <c r="B393" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C393" s="16">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D393" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E393" s="16">
         <v>0</v>
       </c>
       <c r="F393" s="4" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="G393" s="4" t="str">
         <f>VLOOKUP(D393,兵种!B:F,2,0)</f>
-        <v>弓弩手</v>
+        <v>亲卫队</v>
       </c>
       <c r="H393" s="4">
         <f>VLOOKUP(D393,兵种!B:F,3,0)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I393" s="4">
         <f>VLOOKUP(D393,兵种!B:F,4,0)</f>
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J393" s="4">
         <f>VLOOKUP(D393,兵种!B:F,5,0)</f>
@@ -35546,11 +35601,11 @@
       </c>
       <c r="R393" s="1">
         <f>INT(Q393*(100+L393+M393*2)*H393)</f>
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="S393" s="1">
         <f>INT(L393*Q393*1*I393)</f>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="T393" s="1">
         <f>INT(L393*Q393*0.7*J393)</f>
@@ -35576,35 +35631,35 @@
     </row>
     <row r="394" spans="2:25">
       <c r="B394" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C394" s="16">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="D394" s="16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E394" s="16">
         <v>0</v>
       </c>
       <c r="F394" s="4" t="s">
-        <v>851</v>
+        <v>806</v>
       </c>
       <c r="G394" s="4" t="str">
         <f>VLOOKUP(D394,兵种!B:F,2,0)</f>
-        <v>谋略家</v>
+        <v>战弓骑</v>
       </c>
       <c r="H394" s="4">
         <f>VLOOKUP(D394,兵种!B:F,3,0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I394" s="4">
         <f>VLOOKUP(D394,兵种!B:F,4,0)</f>
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J394" s="4">
         <f>VLOOKUP(D394,兵种!B:F,5,0)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K394" s="16" t="str">
         <f>VLOOKUP(E394,绝技!B:C,2,0)</f>
@@ -35631,15 +35686,15 @@
       </c>
       <c r="R394" s="1">
         <f>INT(Q394*(100+L394+M394*2)*H394)</f>
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="S394" s="1">
         <f>INT(L394*Q394*1*I394)</f>
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="T394" s="1">
         <f>INT(L394*Q394*0.7*J394)</f>
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="U394" s="1">
         <f>INT(M394*Q394*1.5)</f>
@@ -43295,86 +43350,86 @@
     </row>
     <row r="491" spans="2:25">
       <c r="B491" s="16" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="C491" s="16">
-        <v>289</v>
+        <v>804</v>
       </c>
       <c r="D491" s="16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E491" s="16">
-        <v>8</v>
-      </c>
-      <c r="F491" s="2" t="s">
-        <v>291</v>
+        <v>0</v>
+      </c>
+      <c r="F491" s="4" t="s">
+        <v>805</v>
       </c>
       <c r="G491" s="4" t="str">
         <f>VLOOKUP(D491,兵种!B:F,2,0)</f>
-        <v>谋略家</v>
+        <v>弓弩手</v>
       </c>
       <c r="H491" s="4">
         <f>VLOOKUP(D491,兵种!B:F,3,0)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I491" s="4">
         <f>VLOOKUP(D491,兵种!B:F,4,0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J491" s="4">
         <f>VLOOKUP(D491,兵种!B:F,5,0)</f>
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K491" s="16" t="str">
         <f>VLOOKUP(E491,绝技!B:C,2,0)</f>
-        <v>奇门遁甲</v>
+        <v>无</v>
       </c>
       <c r="L491" s="1">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="M491" s="1">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="N491" s="1">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O491" s="1">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="P491" s="1">
         <f>SUM(L491:O491)</f>
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="Q491" s="1">
         <v>1</v>
       </c>
       <c r="R491" s="1">
         <f>INT(Q491*(100+L491+M491*2)*H491)</f>
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="S491" s="1">
         <f>INT(L491*Q491*1*I491)</f>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="T491" s="1">
         <f>INT(L491*Q491*0.7*J491)</f>
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="U491" s="1">
         <f>INT(M491*Q491*1.5)</f>
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="V491" s="1">
         <f>INT(M491*Q491*1)</f>
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="W491" s="1">
         <f>INT(N491*Q491*1.2)</f>
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="X491" s="1">
         <f>INT(N491*Q491*0.8)</f>
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="Y491" s="1"/>
     </row>
@@ -48576,88 +48631,54 @@
       <c r="Y556" s="1"/>
     </row>
     <row r="557" spans="2:25">
-      <c r="B557" s="16" t="s">
-        <v>847</v>
+      <c r="B557" s="18" t="s">
+        <v>830</v>
       </c>
       <c r="C557" s="16">
-        <v>424</v>
+        <v>805</v>
       </c>
       <c r="D557" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E557" s="16">
-        <v>10</v>
-      </c>
-      <c r="F557" s="2" t="s">
-        <v>426</v>
+        <v>0</v>
+      </c>
+      <c r="F557" s="4" t="s">
+        <v>801</v>
       </c>
       <c r="G557" s="4" t="str">
         <f>VLOOKUP(D557,兵种!B:F,2,0)</f>
-        <v>谋略家</v>
+        <v>霹雳车</v>
       </c>
       <c r="H557" s="4">
         <f>VLOOKUP(D557,兵种!B:F,3,0)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I557" s="4">
         <f>VLOOKUP(D557,兵种!B:F,4,0)</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J557" s="4">
         <f>VLOOKUP(D557,兵种!B:F,5,0)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K557" s="16" t="str">
         <f>VLOOKUP(E557,绝技!B:C,2,0)</f>
-        <v>倾国倾城</v>
-      </c>
-      <c r="L557" s="1">
-        <v>10</v>
-      </c>
-      <c r="M557" s="1">
-        <v>26</v>
-      </c>
-      <c r="N557" s="1">
-        <v>81</v>
-      </c>
-      <c r="O557" s="1">
-        <v>65</v>
-      </c>
-      <c r="P557" s="1">
-        <f>SUM(L557:O557)</f>
-        <v>182</v>
-      </c>
-      <c r="Q557" s="1">
-        <v>1</v>
-      </c>
-      <c r="R557" s="1">
-        <f>INT(Q557*(100+L557+M557*2)*H557)</f>
-        <v>129</v>
-      </c>
-      <c r="S557" s="1">
-        <f>INT(L557*Q557*1*I557)</f>
-        <v>8</v>
-      </c>
-      <c r="T557" s="1">
-        <f>INT(L557*Q557*0.7*J557)</f>
-        <v>6</v>
-      </c>
-      <c r="U557" s="1">
-        <f>INT(M557*Q557*1.5)</f>
-        <v>39</v>
-      </c>
-      <c r="V557" s="1">
-        <f>INT(M557*Q557*1)</f>
-        <v>26</v>
-      </c>
-      <c r="W557" s="1">
-        <f>INT(N557*Q557*1.2)</f>
-        <v>97</v>
-      </c>
-      <c r="X557" s="1">
-        <f>INT(N557*Q557*0.8)</f>
-        <v>64</v>
-      </c>
+        <v>无</v>
+      </c>
+      <c r="L557" s="1"/>
+      <c r="M557" s="1"/>
+      <c r="N557" s="1"/>
+      <c r="O557" s="1"/>
+      <c r="P557" s="1"/>
+      <c r="Q557" s="1"/>
+      <c r="R557" s="1"/>
+      <c r="S557" s="1"/>
+      <c r="T557" s="1"/>
+      <c r="U557" s="1"/>
+      <c r="V557" s="1"/>
+      <c r="W557" s="1"/>
+      <c r="X557" s="1"/>
       <c r="Y557" s="1"/>
     </row>
     <row r="558" spans="2:25" hidden="1">
@@ -59250,54 +59271,88 @@
       <c r="Y690" s="1"/>
     </row>
     <row r="691" spans="2:25">
-      <c r="B691" s="18" t="s">
-        <v>850</v>
+      <c r="B691" s="16" t="s">
+        <v>827</v>
       </c>
       <c r="C691" s="16">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D691" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E691" s="16">
         <v>0</v>
       </c>
       <c r="F691" s="4" t="s">
-        <v>820</v>
+        <v>831</v>
       </c>
       <c r="G691" s="4" t="str">
         <f>VLOOKUP(D691,兵种!B:F,2,0)</f>
-        <v>霹雳车</v>
+        <v>谋略家</v>
       </c>
       <c r="H691" s="4">
         <f>VLOOKUP(D691,兵种!B:F,3,0)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I691" s="4">
         <f>VLOOKUP(D691,兵种!B:F,4,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J691" s="4">
         <f>VLOOKUP(D691,兵种!B:F,5,0)</f>
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K691" s="16" t="str">
         <f>VLOOKUP(E691,绝技!B:C,2,0)</f>
         <v>无</v>
       </c>
-      <c r="L691" s="1"/>
-      <c r="M691" s="1"/>
-      <c r="N691" s="1"/>
-      <c r="O691" s="1"/>
-      <c r="P691" s="1"/>
-      <c r="Q691" s="1"/>
-      <c r="R691" s="1"/>
-      <c r="S691" s="1"/>
-      <c r="T691" s="1"/>
-      <c r="U691" s="1"/>
-      <c r="V691" s="1"/>
-      <c r="W691" s="1"/>
-      <c r="X691" s="1"/>
+      <c r="L691" s="1">
+        <v>70</v>
+      </c>
+      <c r="M691" s="1">
+        <v>60</v>
+      </c>
+      <c r="N691" s="1">
+        <v>30</v>
+      </c>
+      <c r="O691" s="1">
+        <v>0</v>
+      </c>
+      <c r="P691" s="1">
+        <f>SUM(L691:O691)</f>
+        <v>160</v>
+      </c>
+      <c r="Q691" s="1">
+        <v>1</v>
+      </c>
+      <c r="R691" s="1">
+        <f>INT(Q691*(100+L691+M691*2)*H691)</f>
+        <v>232</v>
+      </c>
+      <c r="S691" s="1">
+        <f>INT(L691*Q691*1*I691)</f>
+        <v>56</v>
+      </c>
+      <c r="T691" s="1">
+        <f>INT(L691*Q691*0.7*J691)</f>
+        <v>44</v>
+      </c>
+      <c r="U691" s="1">
+        <f>INT(M691*Q691*1.5)</f>
+        <v>90</v>
+      </c>
+      <c r="V691" s="1">
+        <f>INT(M691*Q691*1)</f>
+        <v>60</v>
+      </c>
+      <c r="W691" s="1">
+        <f>INT(N691*Q691*1.2)</f>
+        <v>36</v>
+      </c>
+      <c r="X691" s="1">
+        <f>INT(N691*Q691*0.8)</f>
+        <v>24</v>
+      </c>
       <c r="Y691" s="1"/>
     </row>
   </sheetData>
@@ -59308,7 +59363,7 @@
       </customFilters>
     </filterColumn>
     <sortState ref="B3:X691">
-      <sortCondition descending="1" ref="M2:M691"/>
+      <sortCondition ref="C2:C691"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -59330,21 +59385,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I53"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:C53"/>
+    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="6" width="9.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="8" max="8" width="52.125" customWidth="1"/>
-    <col min="9" max="9" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.875" customWidth="1"/>
+    <col min="9" max="9" width="33.375" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:10">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -59352,7 +59408,7 @@
         <v>701</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>702</v>
@@ -59361,41 +59417,45 @@
         <v>703</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>704</v>
+        <v>862</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9">
+        <v>819</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="6">
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>832</v>
+        <v>813</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="2:9" ht="40.5">
+      <c r="H3" s="12"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="2:10" ht="40.5">
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>705</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>706</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>699</v>
@@ -59403,14 +59463,17 @@
       <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>888</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="40.5">
+      <c r="H4" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="40.5">
       <c r="B5" s="6">
         <v>2</v>
       </c>
@@ -59418,10 +59481,10 @@
         <v>698</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>699</v>
@@ -59429,14 +59492,17 @@
       <c r="G5" s="6">
         <v>0</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>889</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="40.5">
+      <c r="H5" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="40.5">
       <c r="B6" s="6">
         <v>3</v>
       </c>
@@ -59444,634 +59510,702 @@
         <v>700</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="G6" s="6">
         <v>1.5</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>773</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" ht="40.5">
+        <v>866</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="40.5">
       <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G7" s="6">
         <v>2</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="40.5">
+        <v>868</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="40.5">
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>711</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>712</v>
       </c>
       <c r="G8" s="6">
         <v>2</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="40.5">
+        <v>870</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="40.5">
       <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G9" s="6">
         <v>1.5</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="40.5">
+        <v>874</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="40.5">
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G10" s="6">
         <v>1.5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>891</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="40.5">
+        <v>885</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="40.5">
       <c r="B11" s="6">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G11" s="6">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>892</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="40.5">
+        <v>877</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="40.5">
       <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>722</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="67.5">
+        <v>761</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="14" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="67.5">
       <c r="B13" s="6">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>846</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="40.5">
+        <v>879</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="40.5">
       <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G14" s="6">
         <v>2</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="40.5">
+        <v>881</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="40.5">
       <c r="B15" s="6">
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G15" s="6">
         <v>2</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="40.5">
+        <v>883</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="40.5">
       <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>880</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="40.5">
+        <v>887</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="40.5">
       <c r="B17" s="6">
         <v>14</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="40.5">
+        <v>889</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="40.5">
       <c r="B18" s="6">
         <v>15</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G18" s="6">
         <v>1.5</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="40.5">
+        <v>891</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="40.5">
       <c r="B19" s="6">
         <v>16</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G19" s="6">
         <v>1.5</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="40.5">
+        <v>892</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="40.5">
       <c r="B20" s="6">
         <v>17</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E20" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>707</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>708</v>
       </c>
       <c r="G20" s="6">
         <v>1.5</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="40.5">
+        <v>761</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="14" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="40.5">
       <c r="B21" s="6">
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G21" s="6">
         <v>2</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="40.5">
+        <v>894</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="40.5">
       <c r="B22" s="6">
         <v>19</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G22" s="6">
         <v>2</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="40.5">
+        <v>894</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="40.5">
       <c r="B23" s="6">
         <v>20</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G23" s="6">
         <v>2</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="40.5">
+        <v>895</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="40.5">
       <c r="B24" s="6">
         <v>21</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G24" s="6">
         <v>2</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="67.5">
+        <v>897</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="67.5">
       <c r="B25" s="6">
         <v>22</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G25" s="6">
         <v>2</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="40.5">
+        <v>899</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="40.5">
       <c r="B26" s="6">
         <v>23</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G26" s="6">
         <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="40.5">
+        <v>895</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="40.5">
       <c r="B27" s="6">
         <v>24</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G27" s="6">
         <v>1.5</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>768</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="40.5">
+        <v>901</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="40.5">
       <c r="B28" s="6">
         <v>25</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G28" s="6">
         <v>2</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="40.5">
+        <v>903</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="40.5">
       <c r="B29" s="6">
         <v>26</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G29" s="6">
         <v>2</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>895</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="40.5">
+        <v>904</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="40.5">
       <c r="B30" s="6">
         <v>27</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>699</v>
@@ -60080,24 +60214,27 @@
         <v>0</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>887</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" ht="40.5">
+        <v>907</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="40.5">
       <c r="B31" s="6">
         <v>28</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>699</v>
@@ -60106,154 +60243,172 @@
         <v>0</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="40.5">
+        <v>909</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="40.5">
       <c r="B32" s="6">
         <v>29</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G32" s="6">
         <v>1.5</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="40.5">
+        <v>910</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="40.5">
       <c r="B33" s="6">
         <v>30</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="G33" s="6">
         <v>1.5</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="40.5">
+        <v>912</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>911</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="40.5">
       <c r="B34" s="6">
         <v>31</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G34" s="6">
         <v>2</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="40.5">
+        <v>895</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" ht="40.5">
       <c r="B35" s="6">
         <v>32</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G35" s="6">
         <v>1</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="40.5">
+        <v>914</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="40.5">
       <c r="B36" s="6">
         <v>33</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G36" s="6">
         <v>1</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>893</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="40.5">
+        <v>889</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="40.5">
       <c r="B37" s="6">
         <v>34</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>804</v>
+        <v>787</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>699</v>
@@ -60262,24 +60417,27 @@
         <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="40.5">
+        <v>916</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="40.5">
       <c r="B38" s="6">
         <v>35</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>699</v>
@@ -60288,257 +60446,276 @@
         <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>810</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="40.5">
+        <v>918</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="40.5">
       <c r="B39" s="6">
         <v>36</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G39" s="6">
         <v>2</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>755</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="67.5">
+        <v>748</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="14" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="67.5">
       <c r="B40" s="6">
         <v>37</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G40" s="6">
         <v>2</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="40.5">
+        <v>748</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="13" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" ht="40.5">
       <c r="B41" s="6">
         <v>38</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G41" s="6">
         <v>1.5</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="2:9" ht="40.5">
+        <v>852</v>
+      </c>
+      <c r="I41" s="12"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" ht="40.5">
       <c r="B42" s="6">
         <v>39</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G42" s="6">
         <v>1.5</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="2:9" ht="40.5">
+        <v>853</v>
+      </c>
+      <c r="I42" s="12"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="2:10" ht="40.5">
       <c r="B43" s="6">
         <v>40</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="F43" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="G43" s="6">
         <v>1</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="2:9" ht="40.5">
+        <v>855</v>
+      </c>
+      <c r="I43" s="12"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="2:10" ht="40.5">
       <c r="B44" s="6">
         <v>41</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>815</v>
+        <v>796</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G44" s="6">
         <v>1</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>877</v>
-      </c>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="2:9" ht="40.5">
+        <v>855</v>
+      </c>
+      <c r="I44" s="12"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="2:10" ht="40.5">
       <c r="B45" s="6">
         <v>42</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="G45" s="6">
         <v>1</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>879</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="2:9" ht="40.5">
+        <v>857</v>
+      </c>
+      <c r="I45" s="12"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="2:10" ht="40.5">
       <c r="B46" s="6">
         <v>43</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G46" s="6">
         <v>1.5</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>883</v>
-      </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="2:9" ht="40.5">
+        <v>894</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="2:10" ht="40.5">
       <c r="B47" s="6">
         <v>44</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G47" s="6">
         <v>1.5</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>884</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="2:9" ht="40.5">
+        <v>886</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="2:10" ht="40.5">
       <c r="B48" s="6">
         <v>45</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>885</v>
+        <v>860</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="2:9">
+        <v>921</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="2:10">
       <c r="B49" s="6">
         <v>46</v>
       </c>
@@ -60548,9 +60725,10 @@
       <c r="F49" s="13"/>
       <c r="G49" s="6"/>
       <c r="H49" s="12"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="2:9">
+      <c r="I49" s="12"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="2:10">
       <c r="B50" s="6">
         <v>47</v>
       </c>
@@ -60560,9 +60738,10 @@
       <c r="F50" s="13"/>
       <c r="G50" s="6"/>
       <c r="H50" s="12"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="2:9">
+      <c r="I50" s="12"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="2:10">
       <c r="B51" s="6">
         <v>48</v>
       </c>
@@ -60572,9 +60751,10 @@
       <c r="F51" s="13"/>
       <c r="G51" s="6"/>
       <c r="H51" s="12"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="2:9">
+      <c r="I51" s="12"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="2:10">
       <c r="B52" s="6">
         <v>49</v>
       </c>
@@ -60584,9 +60764,10 @@
       <c r="F52" s="13"/>
       <c r="G52" s="6"/>
       <c r="H52" s="12"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="2:9">
+      <c r="I52" s="12"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="2:10">
       <c r="B53" s="6">
         <v>50</v>
       </c>
@@ -60596,7 +60777,8 @@
       <c r="F53" s="13"/>
       <c r="G53" s="6"/>
       <c r="H53" s="12"/>
-      <c r="I53" s="6"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -60610,7 +60792,7 @@
   <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60623,7 +60805,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>694</v>
@@ -60635,22 +60817,22 @@
         <v>696</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>833</v>
+        <v>814</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>838</v>
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="40.5">
@@ -60658,7 +60840,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>835</v>
+        <v>816</v>
       </c>
       <c r="D3" s="23">
         <v>0.7</v>
@@ -60686,7 +60868,7 @@
         <v>699</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>839</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="40.5">
@@ -60694,7 +60876,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>836</v>
+        <v>817</v>
       </c>
       <c r="D4" s="23">
         <v>1.1000000000000001</v>
@@ -60719,10 +60901,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="L4" s="22" t="s">
-        <v>840</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="40.5">
@@ -60730,7 +60912,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>821</v>
+        <v>802</v>
       </c>
       <c r="D5" s="23">
         <v>1</v>
@@ -60755,10 +60937,10 @@
         <v>0.1</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="40.5">
@@ -60766,7 +60948,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>822</v>
+        <v>803</v>
       </c>
       <c r="D6" s="23">
         <v>1</v>
@@ -60791,10 +60973,10 @@
         <v>0.15</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>842</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="67.5">
@@ -60802,7 +60984,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>823</v>
+        <v>804</v>
       </c>
       <c r="D7" s="23">
         <v>0.9</v>
@@ -60827,10 +61009,10 @@
         <v>0.2</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>843</v>
+        <v>824</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="40.5">
@@ -60838,7 +61020,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="D8" s="23">
         <v>0.9</v>
@@ -60863,10 +61045,10 @@
         <v>0.05</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>837</v>
+        <v>818</v>
       </c>
       <c r="L8" s="22" t="s">
-        <v>844</v>
+        <v>825</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="40.5">
@@ -60874,7 +61056,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>834</v>
+        <v>815</v>
       </c>
       <c r="D9" s="23">
         <v>0.8</v>
@@ -60899,10 +61081,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>845</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -60917,10 +61099,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:V11"/>
+  <dimension ref="B2:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60928,27 +61110,27 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:23">
       <c r="B2" s="3" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>830</v>
+        <v>811</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>818</v>
+        <v>799</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>697</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>683</v>
@@ -60963,49 +61145,52 @@
         <v>693</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="35" t="s">
         <v>695</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="V2" s="3" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22">
+      <c r="W2" s="35" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23">
       <c r="B3" s="18" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C3" s="27">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="D3" s="28">
         <v>100</v>
       </c>
       <c r="E3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,4,0)</f>
-        <v>张飞</v>
+        <v>赵云</v>
       </c>
       <c r="F3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,5,0)</f>
@@ -61013,82 +61198,86 @@
       </c>
       <c r="G3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,9,0)</f>
-        <v>震天咆哮</v>
+        <v>一身是胆</v>
       </c>
       <c r="H3" s="16">
-        <f>VLOOKUP(V3,绝技!B:G,6,0)</f>
-        <v>2</v>
+        <f>VLOOKUP(W3,绝技!B:G,6,0)</f>
+        <v>1.5</v>
       </c>
       <c r="I3" s="18">
         <f>VLOOKUP(C3,武将!C:P,10,0)</f>
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="J3" s="16">
         <f>VLOOKUP(C3,武将!C:P,11,0)</f>
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K3" s="18">
         <f>VLOOKUP(C3,武将!C:P,12,0)</f>
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L3" s="16">
-        <f>INT(D3*(100+I3+J3*2)*S3)</f>
-        <v>41600</v>
-      </c>
-      <c r="M3" s="18">
-        <f>INT(I3*D3*1*T3)</f>
-        <v>9900</v>
-      </c>
-      <c r="N3" s="16">
-        <f>INT(I3*D3*0.7*U3)</f>
-        <v>6300</v>
-      </c>
-      <c r="O3" s="18">
+        <f>INT(D3*(100+I3+J3*2)*T3)</f>
+        <v>41200</v>
+      </c>
+      <c r="M3" s="16">
+        <f>SUM(N3,P3,R3)</f>
+        <v>37200</v>
+      </c>
+      <c r="N3" s="18">
+        <f>INT(I3*D3*1*U3)</f>
+        <v>10560</v>
+      </c>
+      <c r="O3" s="16">
+        <f>INT(I3*D3*0.7*V3)</f>
+        <v>6720</v>
+      </c>
+      <c r="P3" s="18">
         <f>INT(J3*D3*1.5)</f>
-        <v>16950</v>
-      </c>
-      <c r="P3" s="16">
+        <v>16200</v>
+      </c>
+      <c r="Q3" s="16">
         <f>INT(J3*D3*1)</f>
-        <v>11300</v>
-      </c>
-      <c r="Q3" s="18">
+        <v>10800</v>
+      </c>
+      <c r="R3" s="18">
         <f>INT(K3*D3*1.2)</f>
-        <v>6600</v>
-      </c>
-      <c r="R3" s="16">
+        <v>10440</v>
+      </c>
+      <c r="S3" s="16">
         <f>INT(K3*D3*0.8)</f>
-        <v>4400</v>
-      </c>
-      <c r="S3" s="16">
+        <v>6960</v>
+      </c>
+      <c r="T3" s="36">
         <f>VLOOKUP(C3,武将!C:P,6,0)</f>
         <v>1</v>
       </c>
-      <c r="T3" s="16">
+      <c r="U3" s="36">
         <f>VLOOKUP(C3,武将!C:P,7,0)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="U3" s="16">
+      <c r="V3" s="36">
         <f>VLOOKUP(C3,武将!C:P,8,0)</f>
         <v>1</v>
       </c>
-      <c r="V3" s="16">
+      <c r="W3" s="36">
         <f>VLOOKUP(C3,武将!C:P,3,0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23">
       <c r="B4" s="18" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="C4" s="27">
-        <v>660</v>
+        <v>98</v>
       </c>
       <c r="D4" s="27">
         <v>100</v>
       </c>
       <c r="E4" s="16" t="str">
         <f>VLOOKUP(C4,武将!C:P,4,0)</f>
-        <v>吕布</v>
+        <v>关羽</v>
       </c>
       <c r="F4" s="16" t="str">
         <f>VLOOKUP(C4,武将!C:P,5,0)</f>
@@ -61096,74 +61285,78 @@
       </c>
       <c r="G4" s="16" t="str">
         <f>VLOOKUP(C4,武将!C:P,9,0)</f>
-        <v>无双乱舞</v>
+        <v>拖刀一击</v>
       </c>
       <c r="H4" s="16">
-        <f>VLOOKUP(V4,绝技!B:G,6,0)</f>
-        <v>1.5</v>
+        <f>VLOOKUP(W4,绝技!B:G,6,0)</f>
+        <v>2</v>
       </c>
       <c r="I4" s="18">
         <f>VLOOKUP(C4,武将!C:P,10,0)</f>
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J4" s="16">
         <f>VLOOKUP(C4,武将!C:P,11,0)</f>
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="K4" s="18">
         <f>VLOOKUP(C4,武将!C:P,12,0)</f>
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="L4" s="16">
-        <f>INT(D4*(100+I4+J4*2)*S4)</f>
-        <v>43500</v>
-      </c>
-      <c r="M4" s="18">
-        <f>INT(I4*D4*1*T4)</f>
-        <v>10450</v>
-      </c>
-      <c r="N4" s="16">
-        <f>INT(I4*D4*0.7*U4)</f>
-        <v>6650</v>
-      </c>
-      <c r="O4" s="18">
+        <f>INT(D4*(100+I4+J4*2)*T4)</f>
+        <v>42000</v>
+      </c>
+      <c r="M4" s="16">
+        <f>SUM(N4,P4,R4)</f>
+        <v>37170</v>
+      </c>
+      <c r="N4" s="18">
+        <f>INT(I4*D4*1*U4)</f>
+        <v>11220</v>
+      </c>
+      <c r="O4" s="16">
+        <f>INT(I4*D4*0.7*V4)</f>
+        <v>7140</v>
+      </c>
+      <c r="P4" s="18">
         <f>INT(J4*D4*1.5)</f>
-        <v>18000</v>
-      </c>
-      <c r="P4" s="16">
+        <v>16350</v>
+      </c>
+      <c r="Q4" s="16">
         <f>INT(J4*D4*1)</f>
-        <v>12000</v>
-      </c>
-      <c r="Q4" s="18">
+        <v>10900</v>
+      </c>
+      <c r="R4" s="18">
         <f>INT(K4*D4*1.2)</f>
-        <v>4320</v>
-      </c>
-      <c r="R4" s="16">
+        <v>9600</v>
+      </c>
+      <c r="S4" s="16">
         <f>INT(K4*D4*0.8)</f>
-        <v>2880</v>
-      </c>
-      <c r="S4" s="16">
+        <v>6400</v>
+      </c>
+      <c r="T4" s="36">
         <f>VLOOKUP(C4,武将!C:P,6,0)</f>
         <v>1</v>
       </c>
-      <c r="T4" s="16">
+      <c r="U4" s="36">
         <f>VLOOKUP(C4,武将!C:P,7,0)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="U4" s="16">
+      <c r="V4" s="36">
         <f>VLOOKUP(C4,武将!C:P,8,0)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="16">
+      <c r="W4" s="36">
         <f>VLOOKUP(C4,武将!C:P,3,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="32" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="34"/>
@@ -61178,209 +61371,209 @@
       <c r="K6" s="33"/>
       <c r="L6" s="34"/>
     </row>
-    <row r="7" spans="2:22">
+    <row r="7" spans="2:23">
       <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="30" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="D8" s="25">
-        <f>-INT(M3-N4+D3*50)</f>
-        <v>-8250</v>
+        <f>-INT(N3-O4+D3*50)</f>
+        <v>-8420</v>
       </c>
       <c r="E8" s="25">
         <f>INT(D8/2)</f>
-        <v>-4125</v>
+        <v>-4210</v>
       </c>
       <c r="F8" s="25">
         <f>INT(D8*1.5)</f>
-        <v>-12375</v>
+        <v>-12630</v>
       </c>
       <c r="G8" s="25">
-        <f>-INT((O3-P4+D3*50)*H3)</f>
-        <v>-19900</v>
+        <f>-INT((P3-Q4+D3*50)*H3)</f>
+        <v>-15450</v>
       </c>
       <c r="H8" s="25">
         <f>INT(G8/2)</f>
-        <v>-9950</v>
+        <v>-7725</v>
       </c>
       <c r="I8" s="25">
         <f>INT(G8*1.5)</f>
-        <v>-29850</v>
+        <v>-23175</v>
       </c>
       <c r="J8" s="25">
-        <f>-INT((Q3-R4+D3*50)*H3)</f>
-        <v>-17440</v>
+        <f>-INT((R3-S4+D3*50)*H3)</f>
+        <v>-13560</v>
       </c>
       <c r="K8" s="25">
         <v>0</v>
       </c>
       <c r="L8" s="25">
         <f>INT(J8*1.5)</f>
-        <v>-26160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22">
+        <v>-20340</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="31"/>
       <c r="C9" s="18" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="D9" s="26">
         <f>L4+D8</f>
-        <v>35250</v>
+        <v>33580</v>
       </c>
       <c r="E9" s="26">
         <f>L4+E8</f>
-        <v>39375</v>
+        <v>37790</v>
       </c>
       <c r="F9" s="26">
         <f>L4+F8</f>
-        <v>31125</v>
+        <v>29370</v>
       </c>
       <c r="G9" s="26">
         <f>L4+G8</f>
-        <v>23600</v>
+        <v>26550</v>
       </c>
       <c r="H9" s="26">
         <f>L4+H8</f>
-        <v>33550</v>
+        <v>34275</v>
       </c>
       <c r="I9" s="26">
         <f>L4+I8</f>
-        <v>13650</v>
+        <v>18825</v>
       </c>
       <c r="J9" s="26">
         <f>L4+J8</f>
-        <v>26060</v>
+        <v>28440</v>
       </c>
       <c r="K9" s="26">
         <f>L4+K8</f>
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="L9" s="26">
         <f>L4+L8</f>
-        <v>17340</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22">
+        <v>21660</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="30" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="D10" s="25">
-        <f>-INT(M4-N3+D4*50)</f>
-        <v>-9150</v>
+        <f>-INT(N4-O3+D4*50)</f>
+        <v>-9500</v>
       </c>
       <c r="E10" s="25">
         <f>INT(D10/2)</f>
-        <v>-4575</v>
+        <v>-4750</v>
       </c>
       <c r="F10" s="25">
         <f>INT(D10*1.5)</f>
-        <v>-13725</v>
+        <v>-14250</v>
       </c>
       <c r="G10" s="25">
-        <f>-INT((O4-P3+D4*50)*H4)</f>
-        <v>-17550</v>
+        <f>-INT((P4-Q3+D4*50)*H4)</f>
+        <v>-21100</v>
       </c>
       <c r="H10" s="25">
         <f>INT(G10/2)</f>
-        <v>-8775</v>
+        <v>-10550</v>
       </c>
       <c r="I10" s="25">
         <f>INT(G10*1.5)</f>
-        <v>-26325</v>
+        <v>-31650</v>
       </c>
       <c r="J10" s="25">
-        <f>-INT((Q4-R3+D4*50)*H4)</f>
-        <v>-7380</v>
+        <f>-INT((R4-S3+D4*50)*H4)</f>
+        <v>-15280</v>
       </c>
       <c r="K10" s="25">
         <v>0</v>
       </c>
       <c r="L10" s="25">
         <f>INT(J10*1.5)</f>
-        <v>-11070</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22">
+        <v>-22920</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="31"/>
       <c r="C11" s="18" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="D11" s="26">
         <f>L3+D10</f>
-        <v>32450</v>
+        <v>31700</v>
       </c>
       <c r="E11" s="26">
         <f>L3+E10</f>
-        <v>37025</v>
+        <v>36450</v>
       </c>
       <c r="F11" s="26">
         <f>L3+F10</f>
-        <v>27875</v>
+        <v>26950</v>
       </c>
       <c r="G11" s="26">
         <f>L3+G10</f>
-        <v>24050</v>
+        <v>20100</v>
       </c>
       <c r="H11" s="26">
         <f>L3+H10</f>
-        <v>32825</v>
+        <v>30650</v>
       </c>
       <c r="I11" s="26">
         <f>L3+I10</f>
-        <v>15275</v>
+        <v>9550</v>
       </c>
       <c r="J11" s="26">
         <f>L3+J10</f>
-        <v>34220</v>
+        <v>25920</v>
       </c>
       <c r="K11" s="26">
         <f>L3+K10</f>
-        <v>41600</v>
+        <v>41200</v>
       </c>
       <c r="L11" s="26">
         <f>L3+L10</f>
-        <v>30530</v>
+        <v>18280</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
@@ -61400,6 +61593,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E9" formula="1"/>
   </ignoredErrors>

--- a/doc/数值设计/Action数值设计.xlsx
+++ b/doc/数值设计/Action数值设计.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="968">
   <si>
     <t>ID</t>
   </si>
@@ -3819,6 +3819,10 @@
   </si>
   <si>
     <t>全体加血120，士气25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横向攻击，降敌士气为0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4587,10 +4591,10 @@
   <dimension ref="B2:AB695"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4690,7 +4694,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="3" spans="2:28">
+    <row r="3" spans="2:28" hidden="1">
       <c r="B3" s="27" t="s">
         <v>825</v>
       </c>
@@ -4790,7 +4794,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="2:28">
+    <row r="4" spans="2:28" hidden="1">
       <c r="B4" s="27" t="s">
         <v>825</v>
       </c>
@@ -4898,7 +4902,7 @@
         <v>245</v>
       </c>
       <c r="D5" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="27">
         <v>9</v>
@@ -4908,19 +4912,19 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>VLOOKUP(D5,兵种!B:F,2,0)</f>
-        <v>弓弩手</v>
+        <v>谋略家</v>
       </c>
       <c r="H5" s="4">
         <f>VLOOKUP(D5,兵种!B:F,3,0)</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="4">
         <f>VLOOKUP(D5,兵种!B:F,4,0)</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="4">
         <f>VLOOKUP(D5,兵种!B:F,5,0)</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K5" s="16" t="str">
         <f>VLOOKUP(E5,绝技!B:C,2,0)</f>
@@ -4947,15 +4951,15 @@
       </c>
       <c r="R5" s="1">
         <f t="shared" si="1"/>
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="S5" s="1">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" si="4"/>
@@ -4975,7 +4979,7 @@
       </c>
       <c r="Y5" s="37">
         <f>VLOOKUP(D5,兵种!B:J,7,0)</f>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="37">
         <f>VLOOKUP(D5,兵种!B:J,8,0)</f>
@@ -4983,11 +4987,11 @@
       </c>
       <c r="AA5" s="37">
         <f>VLOOKUP(D5,兵种!B:J,9,0)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="1">
         <f t="shared" si="8"/>
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="2:28" hidden="1">
@@ -5086,7 +5090,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="2:28">
+    <row r="7" spans="2:28" hidden="1">
       <c r="B7" s="27" t="s">
         <v>825</v>
       </c>
@@ -5378,7 +5382,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="10" spans="2:28">
+    <row r="10" spans="2:28" hidden="1">
       <c r="B10" s="28" t="s">
         <v>825</v>
       </c>
@@ -5478,7 +5482,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="2:28">
+    <row r="11" spans="2:28" hidden="1">
       <c r="B11" s="27" t="s">
         <v>825</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="15" spans="2:28">
+    <row r="15" spans="2:28" hidden="1">
       <c r="B15" s="27" t="s">
         <v>825</v>
       </c>
@@ -5966,7 +5970,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="16" spans="2:28">
+    <row r="16" spans="2:28" hidden="1">
       <c r="B16" s="27" t="s">
         <v>825</v>
       </c>
@@ -6066,7 +6070,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="2:28">
+    <row r="17" spans="2:28" hidden="1">
       <c r="B17" s="27" t="s">
         <v>825</v>
       </c>
@@ -6109,14 +6113,14 @@
         <v>113</v>
       </c>
       <c r="N17" s="32">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="O17" s="35">
         <v>22</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="0"/>
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="38">
         <v>1</v>
@@ -6143,11 +6147,11 @@
       </c>
       <c r="W17" s="1">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="7"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Y17" s="37">
         <f>VLOOKUP(D17,兵种!B:J,7,0)</f>
@@ -6163,7 +6167,7 @@
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="8"/>
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:28" hidden="1">
@@ -25500,7 +25504,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="221" spans="2:28">
+    <row r="221" spans="2:28" hidden="1">
       <c r="B221" s="27" t="s">
         <v>825</v>
       </c>
@@ -25792,7 +25796,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="224" spans="2:28">
+    <row r="224" spans="2:28" hidden="1">
       <c r="B224" s="27" t="s">
         <v>825</v>
       </c>
@@ -25892,7 +25896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="225" spans="2:28">
+    <row r="225" spans="2:28" hidden="1">
       <c r="B225" s="27" t="s">
         <v>825</v>
       </c>
@@ -25992,7 +25996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="226" spans="2:28">
+    <row r="226" spans="2:28" hidden="1">
       <c r="B226" s="27" t="s">
         <v>825</v>
       </c>
@@ -26092,7 +26096,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="227" spans="2:28">
+    <row r="227" spans="2:28" hidden="1">
       <c r="B227" s="27" t="s">
         <v>825</v>
       </c>
@@ -26192,7 +26196,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="228" spans="2:28">
+    <row r="228" spans="2:28" hidden="1">
       <c r="B228" s="28" t="s">
         <v>828</v>
       </c>
@@ -65413,14 +65417,14 @@
         <v>81</v>
       </c>
       <c r="P643" s="1">
-        <f t="shared" ref="P643:P706" si="90">SUM(L643:O643)</f>
+        <f t="shared" ref="P643:P659" si="90">SUM(L643:O643)</f>
         <v>191</v>
       </c>
       <c r="Q643" s="38">
         <v>1</v>
       </c>
       <c r="R643" s="1">
-        <f t="shared" ref="R643:R706" si="91">INT(Q643*(100+L643+M643*2)*H643)</f>
+        <f t="shared" ref="R643:R659" si="91">INT(Q643*(100+L643+M643*2)*H643)</f>
         <v>142</v>
       </c>
       <c r="S643" s="1">
@@ -66880,7 +66884,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="659" spans="2:28">
+    <row r="659" spans="2:28" hidden="1">
       <c r="B659" s="27" t="s">
         <v>825</v>
       </c>
@@ -70036,6 +70040,11 @@
       </customFilters>
     </filterColumn>
     <filterColumn colId="3"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="周瑜"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="23"/>
     <filterColumn colId="24"/>
     <filterColumn colId="25"/>
@@ -71474,7 +71483,7 @@
   <dimension ref="B2:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -71706,10 +71715,10 @@
         <v>714</v>
       </c>
       <c r="G10" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>848</v>
+        <v>967</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
@@ -71809,7 +71818,7 @@
   <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -72119,7 +72128,7 @@
   <dimension ref="B2:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -72212,14 +72221,14 @@
         <v>832</v>
       </c>
       <c r="C3" s="27">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="D3" s="28">
         <v>1</v>
       </c>
       <c r="E3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,4,0)</f>
-        <v>关羽</v>
+        <v>张飞</v>
       </c>
       <c r="F3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,5,0)</f>
@@ -72227,55 +72236,55 @@
       </c>
       <c r="G3" s="16" t="str">
         <f>VLOOKUP(C3,武将!C:P,9,0)</f>
-        <v>拖刀一击</v>
+        <v>震天咆哮</v>
       </c>
       <c r="H3" s="16">
         <f>VLOOKUP(Z3,绝技demo!B:G,6,0)</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I3" s="18">
         <f>VLOOKUP(C3,武将!C:P,10,0)</f>
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J3" s="16">
         <f>VLOOKUP(C3,武将!C:P,11,0)</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K3" s="18">
         <f>VLOOKUP(C3,武将!C:P,12,0)</f>
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="L3" s="16">
         <f>INT(D3*(100+I3+J3*2)*T3)</f>
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M3" s="16">
         <f>SUM(N3,P3,R3)</f>
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="N3" s="18">
         <f>INT(I3*D3*1*U3)</f>
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="O3" s="16">
         <f>INT(I3*D3*0.7*V3)</f>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P3" s="18">
         <f>INT(J3*D3*1.5)</f>
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q3" s="16">
         <f>INT(J3*D3*1)</f>
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="R3" s="18">
         <f>INT(K3*D3*1.2)</f>
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="S3" s="16">
         <f>INT(K3*D3*0.8)</f>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="T3" s="31">
         <f>VLOOKUP(AA3,兵种!B:J,3,0)</f>
@@ -72303,7 +72312,7 @@
       </c>
       <c r="Z3" s="31">
         <f>VLOOKUP(C3,武将!C:P,3,0)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA3" s="31">
         <f>VLOOKUP(C3,武将!C:P,2,0)</f>
@@ -72472,38 +72481,38 @@
       </c>
       <c r="D8" s="25">
         <f>-MAX(1,INT(N3-O4+D3*50))</f>
-        <v>-87</v>
+        <v>-79</v>
       </c>
       <c r="E8" s="25">
         <f>INT(D8/2)</f>
-        <v>-44</v>
+        <v>-40</v>
       </c>
       <c r="F8" s="25">
         <f>INT(D8*1.5)</f>
-        <v>-131</v>
+        <v>-119</v>
       </c>
       <c r="G8" s="25">
         <f>-MAX(1,INT((P3-Q4+D3*50)*H3))</f>
-        <v>-232</v>
+        <v>-198</v>
       </c>
       <c r="H8" s="25">
         <f>INT(G8/2)</f>
-        <v>-116</v>
+        <v>-99</v>
       </c>
       <c r="I8" s="25">
         <f>INT(G8*1.5)</f>
-        <v>-348</v>
+        <v>-297</v>
       </c>
       <c r="J8" s="25">
         <f>-MAX(1,INT((R3-S4+D3*50)*H3))</f>
-        <v>-295</v>
+        <v>-202</v>
       </c>
       <c r="K8" s="25">
         <v>0</v>
       </c>
       <c r="L8" s="25">
         <f>INT(J8*1.5)</f>
-        <v>-443</v>
+        <v>-303</v>
       </c>
     </row>
     <row r="9" spans="2:27">
@@ -72513,31 +72522,31 @@
       </c>
       <c r="D9" s="26">
         <f>L4+D8</f>
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E9" s="26">
         <f>L4+E8</f>
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F9" s="26">
         <f>L4+F8</f>
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G9" s="26">
         <f>L4+G8</f>
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="H9" s="26">
         <f>L4+H8</f>
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="I9" s="26">
         <f>L4+I8</f>
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="J9" s="26">
         <f>L4+J8</f>
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="K9" s="26">
         <f>L4+K8</f>
@@ -72545,7 +72554,7 @@
       </c>
       <c r="L9" s="26">
         <f>L4+L8</f>
-        <v>5</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="2:27">
@@ -72557,38 +72566,38 @@
       </c>
       <c r="D10" s="25">
         <f>-MAX(1,INT(N4-O3+D4*50))</f>
-        <v>-97</v>
+        <v>-102</v>
       </c>
       <c r="E10" s="25">
         <f>INT(D10/2)</f>
-        <v>-49</v>
+        <v>-51</v>
       </c>
       <c r="F10" s="25">
         <f>INT(D10*1.5)</f>
-        <v>-146</v>
+        <v>-153</v>
       </c>
       <c r="G10" s="25">
         <f>-MAX(1,INT((P4-Q3+D4*50)*H4))</f>
-        <v>-181</v>
+        <v>-175</v>
       </c>
       <c r="H10" s="25">
         <f>INT(G10/2)</f>
-        <v>-91</v>
+        <v>-88</v>
       </c>
       <c r="I10" s="25">
         <f>INT(G10*1.5)</f>
-        <v>-272</v>
+        <v>-263</v>
       </c>
       <c r="J10" s="25">
         <f>-MAX(1,INT((R4-S3+D4*50)*H4))</f>
-        <v>-43</v>
+        <v>-61</v>
       </c>
       <c r="K10" s="25">
         <v>0</v>
       </c>
       <c r="L10" s="25">
         <f>INT(J10*1.5)</f>
-        <v>-65</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -72598,39 +72607,39 @@
       </c>
       <c r="D11" s="26">
         <f>L3+D10</f>
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E11" s="26">
         <f>L3+E10</f>
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F11" s="26">
         <f>L3+F10</f>
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G11" s="26">
         <f>L3+G10</f>
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H11" s="26">
         <f>L3+H10</f>
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I11" s="26">
         <f>L3+I10</f>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J11" s="26">
         <f>L3+J10</f>
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="K11" s="26">
         <f>L3+K10</f>
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L11" s="26">
         <f>L3+L10</f>
-        <v>355</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="2:27">
